--- a/doc/excel/干部/[sample_cadreAll]干部信息一张表导入样表.xlsx
+++ b/doc/excel/干部/[sample_cadreAll]干部信息一张表导入样表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\学校-功能\导入样表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9DC7EF-E8A3-4F13-BE74-1F5448382B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DFEAE0-B861-45A5-B7F0-D33C3F5AA01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>工作证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>机关正职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党员身份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -222,7 +226,9 @@
 填表须知：
        1、 用兼字连接的职位会一分为二；
        2、有兼职的需要填写相应数量的所在单位，用逗号隔开；
-       3、兼职不是必填</t>
+       3、兼职不是必填
+       4、党员身份须填写中共党员/民主党员，如果有入党时间且党员身份为空，则默认为中共党员
+</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,18 +343,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -385,7 +385,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,9 +399,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -435,11 +432,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -724,49 +721,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:G13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="13.5" style="16"/>
-    <col min="5" max="5" width="44.875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="39.75" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="16" customWidth="1"/>
-    <col min="11" max="11" width="17" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="16" customWidth="1"/>
-    <col min="13" max="14" width="11.75" style="16" customWidth="1"/>
-    <col min="15" max="15" width="20.625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="9.875" style="16" customWidth="1"/>
-    <col min="17" max="17" width="11.125" style="16" customWidth="1"/>
-    <col min="18" max="19" width="11.25" style="16" customWidth="1"/>
-    <col min="20" max="20" width="12" style="16" customWidth="1"/>
-    <col min="21" max="21" width="10.125" style="16" customWidth="1"/>
-    <col min="22" max="22" width="10.625" style="16" customWidth="1"/>
-    <col min="23" max="23" width="10.875" style="16" customWidth="1"/>
-    <col min="24" max="24" width="10.625" style="16" customWidth="1"/>
-    <col min="25" max="25" width="11" style="16" customWidth="1"/>
-    <col min="26" max="27" width="20.625" style="16" customWidth="1"/>
-    <col min="28" max="16384" width="13.5" style="16"/>
+    <col min="1" max="4" width="13.5" style="15"/>
+    <col min="5" max="5" width="44.875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="39.75" style="15" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="15" customWidth="1"/>
+    <col min="11" max="11" width="17" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="15" customWidth="1"/>
+    <col min="13" max="14" width="11.75" style="15" customWidth="1"/>
+    <col min="15" max="15" width="20.625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="11.125" style="15" customWidth="1"/>
+    <col min="18" max="19" width="11.25" style="15" customWidth="1"/>
+    <col min="20" max="20" width="12" style="15" customWidth="1"/>
+    <col min="21" max="21" width="10.125" style="15" customWidth="1"/>
+    <col min="22" max="22" width="10.625" style="15" customWidth="1"/>
+    <col min="23" max="23" width="10.875" style="15" customWidth="1"/>
+    <col min="24" max="24" width="10.625" style="15" customWidth="1"/>
+    <col min="25" max="25" width="11" style="15" customWidth="1"/>
+    <col min="26" max="27" width="20.625" style="15" customWidth="1"/>
+    <col min="28" max="29" width="13.5" style="15"/>
+    <col min="30" max="30" width="12.75" style="15" customWidth="1"/>
+    <col min="31" max="16384" width="13.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -778,22 +777,22 @@
       <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -802,34 +801,34 @@
       <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="13" t="s">
         <v>31</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -845,127 +844,131 @@
         <v>3</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>43983</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="9" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
+      <c r="Y2" s="9"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
     </row>
-    <row r="5" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="18" t="s">
-        <v>43</v>
+    <row r="5" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:32" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>

--- a/doc/excel/干部/[sample_cadreAll]干部信息一张表导入样表.xlsx
+++ b/doc/excel/干部/[sample_cadreAll]干部信息一张表导入样表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\学校-功能\导入样表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\骥贤-功能开发文件\20201127之后功能开发文件\相关导入样表修改\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DFEAE0-B861-45A5-B7F0-D33C3F5AA01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30C0787-1F03-4E7F-87FB-0B6BDFE680BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="450" windowWidth="25935" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,10 +224,10 @@
       <t xml:space="preserve">
 导入时会先清空相关的表，然后进行导入
 填表须知：
-       1、 用兼字连接的职位会一分为二；
-       2、有兼职的需要填写相应数量的所在单位，用逗号隔开；
-       3、兼职不是必填
-       4、党员身份须填写中共党员/民主党员，如果有入党时间且党员身份为空，则默认为中共党员
+       1、 有兼职的需要填写相应数量的所在单位，用逗号隔开；
+       2、兼职不是必填
+       3、党员身份须填写中共党员/民主党员，如果有入党时间且党员身份为空，则默认为中共党员
+       4、如果姓名和工作证号都为空，则该条记录录入一条空闲岗位。
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,10 +237,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;.&quot;mm&quot;&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,16 +343,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -374,6 +394,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -385,7 +418,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,6 +464,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -723,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -735,7 +792,7 @@
     <col min="7" max="7" width="39.75" style="15" customWidth="1"/>
     <col min="8" max="8" width="18.125" style="15" customWidth="1"/>
     <col min="9" max="9" width="9.375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="15" customWidth="1"/>
     <col min="11" max="11" width="17" style="15" customWidth="1"/>
     <col min="12" max="12" width="9.375" style="15" customWidth="1"/>
     <col min="13" max="14" width="11.75" style="15" customWidth="1"/>
@@ -755,11 +812,11 @@
     <col min="31" max="16384" width="13.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -918,75 +975,108 @@
       <c r="AE2"/>
       <c r="AF2"/>
     </row>
+    <row r="3" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="17"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="23"/>
+    </row>
     <row r="5" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:33" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D5:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{62F7AE73-C5E9-460C-A82E-83F6A10F1527}">
       <formula1>"机关干部,院系干部"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{21836D5E-9CC0-4FB0-A514-AB4B5E8BEBBD}">
       <formula1>"处级干部,科级干部"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 Q2 V2" xr:uid="{BF24D8B2-22A3-4C95-84CF-7C7B20D8729C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2 Q2" xr:uid="{BF24D8B2-22A3-4C95-84CF-7C7B20D8729C}">
       <formula1>"机关正职,机关副职,机关党委正职,机关党委副职,院系行政正职,院系行政副职,院系党委正职,院系党委副职,附属附属单位行政正职,附属单位行政副职,附属单位党委正职,附属单位党委副职"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 R2 W2" xr:uid="{71AAC572-FCD4-4831-BA7B-9F5F5A54500E}">
@@ -995,6 +1085,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 S2 X2" xr:uid="{4058DD13-8848-4879-9391-71CD002F419E}">
       <formula1>"行政,党务"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{D85F260D-34EF-41E3-83CB-A80299F7F4E3}">
+      <formula1>"机关正职,机关副职,机关党委正职,机关党委副职,院系行政正职,院系行政副职,院系党委正职,院系党委副职,附属单位行政正职,附属单位行政副职,附属单位党委正职,附属单位党委副职"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/excel/干部/[sample_cadreAll]干部信息一张表导入样表.xlsx
+++ b/doc/excel/干部/[sample_cadreAll]干部信息一张表导入样表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\骥贤-功能开发文件\20201127之后功能开发文件\相关导入样表修改\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\干部\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30C0787-1F03-4E7F-87FB-0B6BDFE680BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23648FF6-3DC9-4556-B402-6C6634C1F379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="450" windowWidth="25935" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,13 +222,24 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-导入时会先清空相关的表，然后进行导入
-填表须知：
-       1、 有兼职的需要填写相应数量的所在单位，用逗号隔开；
-       2、兼职不是必填
-       3、党员身份须填写中共党员/民主党员，如果有入党时间且党员身份为空，则默认为中共党员
-       4、如果姓名和工作证号都为空，则该条记录录入一条空闲岗位。
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>填表须知：
+1、导入字段较多，请按照样表中的要求，填写对应的数据；
+2、内设机构起始编码是一个完整的编码，系统中会判断已存在的编码中，前几位相同，后两位数最大的编码，然后下一个新增的单位对应的编码相应的加1；
+3、该功能可以录入对应有干部信息的数据；如果姓名和工作证号都为空，则该条记录录入一条空闲岗位，也可以录入一个空的岗位；
+4、党员身份须填写中共党员/民主党员，如果有入党时间且党员身份为空，则默认为中共党员；
+5、有兼职的需要填写相应数量的所在单位，用逗号隔开；兼职不是必填；</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
